--- a/ren_energy_europe.xlsx
+++ b/ren_energy_europe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agniv\Downloads\UN-Debate-Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DCF6309-7753-44B4-8B2C-03C44AB8E4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6739ACE0-8A13-4393-844B-9D7660A3232E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E7D23CAE-04D7-46F1-B334-F319848F8113}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E7D23CAE-04D7-46F1-B334-F319848F8113}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,16 +23,24 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,419 +390,427 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6318B9-5378-4E50-BD8D-AE0142C9243F}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1970</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>34.603567814999998</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>1971</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>39.703061403000007</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>1972</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>41.983217195000002</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>1973</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>43.608996889000004</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>1974</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>45.235147265999998</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>1975</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>43.280103848000003</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>1976</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>39.251980156999998</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>1977</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>40.513799712999997</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>1978</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>37.708913088000003</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>1979</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>38.412651660000009</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>1980</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>40.182472123000011</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>1981</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>41.365238251999997</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>1982</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>39.049556926000008</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>1983</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>43.270614249999994</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>1984</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>43.809425217999994</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>1985</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>42.641914667999998</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>1986</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>36.904884407000004</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>1987</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>41.928647386000009</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>1988</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>43.817854608000005</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>1989</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>44.503857473000004</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>1990</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>54.351098774999997</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>1991</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>64.915969001000008</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>1992</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>65.100931187</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>1993</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>66.47001980200001</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>1994</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>62.732273628999998</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>1995</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>68.731372304000004</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>1996</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>67.420207135000012</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>1997</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>71.576921517000002</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>1998</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>75.753994057000014</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>1999</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>80.144041811000008</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>2000</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>84.771469462999988</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>2001</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>81.587418252999996</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34">
         <v>2002</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>76.960947459999986</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>2003</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>69.821818381999989</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>2004</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>83.142304246999998</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>2005</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>92.742243528000003</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38">
         <v>2006</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>86.820540415000011</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>2007</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>84.454246631000004</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>2008</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>93.492332458999996</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>2009</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>106.12517499199998</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
         <v>2010</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>117.036654469</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>2011</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>111.08276749300001</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44">
         <v>2012</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>120.97638380100001</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
         <v>2013</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>135.60128283</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46">
         <v>2014</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>148.150295497</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47">
         <v>2015</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>154.80249667100003</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48">
         <v>2016</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>148.538518428</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
         <v>2017</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>150.727393866</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50">
         <v>2018</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>162.29917717199999</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51">
         <v>2019</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>167.77310944000001</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52">
         <v>2020</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>193.517700187</v>
       </c>
     </row>

--- a/ren_energy_europe.xlsx
+++ b/ren_energy_europe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DCF6309-7753-44B4-8B2C-03C44AB8E4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DD07E5-BAF1-4148-B479-3B6A719B922F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E7D23CAE-04D7-46F1-B334-F319848F8113}"/>
   </bookViews>
@@ -33,6 +33,38 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>BGR</t>
+  </si>
+  <si>
+    <t>DNK</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>HRV</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,420 +414,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6318B9-5378-4E50-BD8D-AE0142C9243F}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1970</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>34.603567814999998</v>
+        <v>85.512498089999994</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1971</v>
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>39.703061403000007</v>
+        <v>1725.9964030000001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1972</v>
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>41.983217195000002</v>
+        <v>62.114794199999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1973</v>
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>43.608996889000004</v>
+        <v>453.60070819999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1974</v>
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>45.235147265999998</v>
+        <v>219.96265339999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1975</v>
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>43.280103848000003</v>
+        <v>419.16623600000003</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1976</v>
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>39.251980156999998</v>
+        <v>300.43513439999998</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1977</v>
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>40.513799712999997</v>
+        <v>612.04655930000001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1978</v>
+      <c r="A9" t="s">
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>37.708913088000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1979</v>
-      </c>
-      <c r="B10">
-        <v>38.412651660000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1980</v>
-      </c>
-      <c r="B11">
-        <v>40.182472123000011</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1981</v>
-      </c>
-      <c r="B12">
-        <v>41.365238251999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1982</v>
-      </c>
-      <c r="B13">
-        <v>39.049556926000008</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1983</v>
-      </c>
-      <c r="B14">
-        <v>43.270614249999994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1984</v>
-      </c>
-      <c r="B15">
-        <v>43.809425217999994</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1985</v>
-      </c>
-      <c r="B16">
-        <v>42.641914667999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1986</v>
-      </c>
-      <c r="B17">
-        <v>36.904884407000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1987</v>
-      </c>
-      <c r="B18">
-        <v>41.928647386000009</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>1988</v>
-      </c>
-      <c r="B19">
-        <v>43.817854608000005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>1989</v>
-      </c>
-      <c r="B20">
-        <v>44.503857473000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>1990</v>
-      </c>
-      <c r="B21">
-        <v>54.351098774999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>1991</v>
-      </c>
-      <c r="B22">
-        <v>64.915969001000008</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>1992</v>
-      </c>
-      <c r="B23">
-        <v>65.100931187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>1993</v>
-      </c>
-      <c r="B24">
-        <v>66.47001980200001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>1994</v>
-      </c>
-      <c r="B25">
-        <v>62.732273628999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>1995</v>
-      </c>
-      <c r="B26">
-        <v>68.731372304000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>1996</v>
-      </c>
-      <c r="B27">
-        <v>67.420207135000012</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>1997</v>
-      </c>
-      <c r="B28">
-        <v>71.576921517000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>1998</v>
-      </c>
-      <c r="B29">
-        <v>75.753994057000014</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>1999</v>
-      </c>
-      <c r="B30">
-        <v>80.144041811000008</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>2000</v>
-      </c>
-      <c r="B31">
-        <v>84.771469462999988</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>2001</v>
-      </c>
-      <c r="B32">
-        <v>81.587418252999996</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>2002</v>
-      </c>
-      <c r="B33">
-        <v>76.960947459999986</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>2003</v>
-      </c>
-      <c r="B34">
-        <v>69.821818381999989</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>2004</v>
-      </c>
-      <c r="B35">
-        <v>83.142304246999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>2005</v>
-      </c>
-      <c r="B36">
-        <v>92.742243528000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>2006</v>
-      </c>
-      <c r="B37">
-        <v>86.820540415000011</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>2007</v>
-      </c>
-      <c r="B38">
-        <v>84.454246631000004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>2008</v>
-      </c>
-      <c r="B39">
-        <v>93.492332458999996</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>2009</v>
-      </c>
-      <c r="B40">
-        <v>106.12517499199998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>2010</v>
-      </c>
-      <c r="B41">
-        <v>117.036654469</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>2011</v>
-      </c>
-      <c r="B42">
-        <v>111.08276749300001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>2012</v>
-      </c>
-      <c r="B43">
-        <v>120.97638380100001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>2013</v>
-      </c>
-      <c r="B44">
-        <v>135.60128283</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>2014</v>
-      </c>
-      <c r="B45">
-        <v>148.150295497</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>2015</v>
-      </c>
-      <c r="B46">
-        <v>154.80249667100003</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>2016</v>
-      </c>
-      <c r="B47">
-        <v>148.538518428</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>2017</v>
-      </c>
-      <c r="B48">
-        <v>150.727393866</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>2018</v>
-      </c>
-      <c r="B49">
-        <v>162.29917717199999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>2019</v>
-      </c>
-      <c r="B50">
-        <v>167.77310944000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>2020</v>
-      </c>
-      <c r="B51">
-        <v>193.517700187</v>
+        <v>90.562022839999997</v>
       </c>
     </row>
   </sheetData>

--- a/ren_energy_europe.xlsx
+++ b/ren_energy_europe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DD07E5-BAF1-4148-B479-3B6A719B922F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487F2573-E422-4F7E-B792-0425363B0690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E7D23CAE-04D7-46F1-B334-F319848F8113}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>NLD</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>POL</t>
+  </si>
+  <si>
+    <t>IRL</t>
   </si>
 </sst>
 </file>
@@ -414,84 +417,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6318B9-5378-4E50-BD8D-AE0142C9243F}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1">
-        <v>85.512498089999994</v>
+        <v>62.114794199999999</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>1725.9964030000001</v>
+        <v>219.96265339999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>62.114794199999999</v>
+        <v>419.16623600000003</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>453.60070819999999</v>
+        <v>300.43513439999998</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>219.96265339999999</v>
+        <v>229.56249950900005</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>419.16623600000003</v>
+        <v>612.04655930000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>300.43513439999998</v>
+        <v>1725.9964030000001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>612.04655930000001</v>
+        <v>90.562022839999997</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>90.562022839999997</v>
+        <v>85.512498089999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>453.60070819999999</v>
       </c>
     </row>
   </sheetData>
